--- a/data/output/FV2504_FV2410/ORDERS/17128.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17128.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="295">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="295">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1033,6 +1033,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U170" totalsRowShown="0">
+  <autoFilter ref="A1:U170"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,7 +1352,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8931,5 +8964,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17128.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17128.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4047" uniqueCount="463">
   <si>
     <t>#</t>
   </si>
@@ -9358,44 +9358,42 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -9587,9 +9585,7 @@
         <v>208</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>43</v>
       </c>
@@ -9616,46 +9612,44 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="K160" s="5" t="s">
+      <c r="K160" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L160" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M160" s="5" t="s">
+      <c r="L160" s="4"/>
+      <c r="M160" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="V160" s="5" t="s">
+      <c r="V160" s="2" t="s">
         <v>268</v>
       </c>
     </row>

--- a/data/output/FV2504_FV2410/ORDERS/17128.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17128.xlsx
@@ -1521,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1547,7 +1547,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1994,7 +2000,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2358,7 +2364,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2504,7 +2510,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2706,7 +2712,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2912,7 +2918,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3118,7 +3124,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3324,7 +3330,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3640,7 +3646,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3814,52 +3820,52 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="5"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -4216,7 +4222,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4530,7 +4536,7 @@
         <v>254</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4934,52 +4940,52 @@
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O59" s="5" t="s">
+      <c r="N59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P59" s="5"/>
+      <c r="P59" s="2"/>
       <c r="Q59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V59" s="5"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -5114,7 +5120,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5314,7 +5320,7 @@
         <v>257</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5718,52 +5724,52 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N74" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O74" s="5" t="s">
+      <c r="N74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V74" s="5"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5898,7 +5904,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6098,7 +6104,7 @@
         <v>259</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6521,23 +6527,23 @@
       <c r="M89" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N89" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O89" s="9" t="s">
+      <c r="N89" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O89" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9" t="s">
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9" t="s">
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="V89" s="9"/>
+      <c r="V89" s="10"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6556,30 +6562,30 @@
       <c r="L90" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M90" s="9" t="s">
+      <c r="M90" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N90" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O90" s="9" t="s">
+      <c r="N90" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O90" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P90" s="9" t="s">
+      <c r="P90" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q90" s="9" t="s">
+      <c r="Q90" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="R90" s="9" t="s">
+      <c r="R90" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9" t="s">
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="V90" s="9"/>
+      <c r="V90" s="10"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6598,30 +6604,30 @@
       <c r="L91" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M91" s="9" t="s">
+      <c r="M91" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N91" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O91" s="9" t="s">
+      <c r="N91" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O91" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P91" s="9" t="s">
+      <c r="P91" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q91" s="9" t="s">
+      <c r="Q91" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9" t="s">
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="U91" s="9" t="s">
+      <c r="U91" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="V91" s="9"/>
+      <c r="V91" s="10"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -6643,19 +6649,19 @@
       <c r="M92" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N92" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9" t="s">
+      <c r="N92" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="V92" s="9" t="s">
+      <c r="V92" s="10" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6676,26 +6682,26 @@
       <c r="L93" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M93" s="9" t="s">
+      <c r="M93" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N93" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O93" s="9" t="s">
+      <c r="N93" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O93" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9" t="s">
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9" t="s">
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="V93" s="9"/>
+      <c r="V93" s="10"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6714,30 +6720,30 @@
       <c r="L94" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M94" s="9" t="s">
+      <c r="M94" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O94" s="9" t="s">
+      <c r="N94" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O94" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P94" s="9" t="s">
+      <c r="P94" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q94" s="9" t="s">
+      <c r="Q94" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9" t="s">
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="U94" s="9" t="s">
+      <c r="U94" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="V94" s="9" t="s">
+      <c r="V94" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6758,30 +6764,30 @@
       <c r="L95" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M95" s="9" t="s">
+      <c r="M95" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N95" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O95" s="9" t="s">
+      <c r="N95" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O95" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P95" s="9" t="s">
+      <c r="P95" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q95" s="9" t="s">
+      <c r="Q95" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="R95" s="9" t="s">
+      <c r="R95" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9" t="s">
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="V95" s="9"/>
+      <c r="V95" s="10"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -6800,26 +6806,26 @@
       <c r="L96" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M96" s="9" t="s">
+      <c r="M96" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N96" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O96" s="9" t="s">
+      <c r="N96" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O96" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9" t="s">
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9" t="s">
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="V96" s="9"/>
+      <c r="V96" s="10"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6838,28 +6844,28 @@
       <c r="L97" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M97" s="9" t="s">
+      <c r="M97" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N97" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O97" s="9" t="s">
+      <c r="N97" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O97" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P97" s="9" t="s">
+      <c r="P97" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q97" s="9" t="s">
+      <c r="Q97" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9" t="s">
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="V97" s="9"/>
+      <c r="V97" s="10"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6878,30 +6884,30 @@
       <c r="L98" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M98" s="9" t="s">
+      <c r="M98" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N98" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O98" s="9" t="s">
+      <c r="N98" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O98" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P98" s="9" t="s">
+      <c r="P98" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q98" s="9" t="s">
+      <c r="Q98" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9" t="s">
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="U98" s="9" t="s">
+      <c r="U98" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="V98" s="9" t="s">
+      <c r="V98" s="10" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6922,32 +6928,32 @@
       <c r="L99" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M99" s="9" t="s">
+      <c r="M99" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N99" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O99" s="9" t="s">
+      <c r="N99" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O99" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P99" s="9" t="s">
+      <c r="P99" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q99" s="9" t="s">
+      <c r="Q99" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R99" s="9" t="s">
+      <c r="R99" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9" t="s">
+      <c r="S99" s="10"/>
+      <c r="T99" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="U99" s="9" t="s">
+      <c r="U99" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="V99" s="9"/>
+      <c r="V99" s="10"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -6969,23 +6975,23 @@
       <c r="M100" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N100" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O100" s="9" t="s">
+      <c r="N100" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O100" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9" t="s">
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="R100" s="9"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9" t="s">
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="V100" s="9"/>
+      <c r="V100" s="10"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -7004,30 +7010,30 @@
       <c r="L101" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M101" s="9" t="s">
+      <c r="M101" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N101" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O101" s="9" t="s">
+      <c r="N101" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O101" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P101" s="9" t="s">
+      <c r="P101" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q101" s="9" t="s">
+      <c r="Q101" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="R101" s="9" t="s">
+      <c r="R101" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9" t="s">
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="V101" s="9"/>
+      <c r="V101" s="10"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -7046,30 +7052,30 @@
       <c r="L102" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M102" s="9" t="s">
+      <c r="M102" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N102" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O102" s="9" t="s">
+      <c r="N102" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O102" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P102" s="9" t="s">
+      <c r="P102" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q102" s="9" t="s">
+      <c r="Q102" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9" t="s">
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="U102" s="9" t="s">
+      <c r="U102" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="V102" s="9"/>
+      <c r="V102" s="10"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -7091,19 +7097,19 @@
       <c r="M103" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N103" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="9"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9" t="s">
+      <c r="N103" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="V103" s="9" t="s">
+      <c r="V103" s="10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7124,26 +7130,26 @@
       <c r="L104" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="M104" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N104" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O104" s="9" t="s">
+      <c r="N104" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O104" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9" t="s">
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9" t="s">
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="V104" s="9"/>
+      <c r="V104" s="10"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7162,30 +7168,30 @@
       <c r="L105" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="M105" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N105" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O105" s="9" t="s">
+      <c r="N105" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O105" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P105" s="9" t="s">
+      <c r="P105" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q105" s="9" t="s">
+      <c r="Q105" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9" t="s">
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="U105" s="9" t="s">
+      <c r="U105" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="V105" s="9" t="s">
+      <c r="V105" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7206,30 +7212,30 @@
       <c r="L106" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M106" s="9" t="s">
+      <c r="M106" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N106" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O106" s="9" t="s">
+      <c r="N106" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O106" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P106" s="9" t="s">
+      <c r="P106" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q106" s="9" t="s">
+      <c r="Q106" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="R106" s="9" t="s">
+      <c r="R106" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9" t="s">
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="V106" s="9"/>
+      <c r="V106" s="10"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7248,26 +7254,26 @@
       <c r="L107" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M107" s="9" t="s">
+      <c r="M107" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N107" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O107" s="9" t="s">
+      <c r="N107" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O107" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9" t="s">
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9" t="s">
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="V107" s="9"/>
+      <c r="V107" s="10"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7286,28 +7292,28 @@
       <c r="L108" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N108" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O108" s="9" t="s">
+      <c r="N108" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O108" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P108" s="9" t="s">
+      <c r="P108" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q108" s="9" t="s">
+      <c r="Q108" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9" t="s">
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="V108" s="9"/>
+      <c r="V108" s="10"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7326,30 +7332,30 @@
       <c r="L109" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M109" s="9" t="s">
+      <c r="M109" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N109" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O109" s="9" t="s">
+      <c r="N109" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O109" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P109" s="9" t="s">
+      <c r="P109" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q109" s="9" t="s">
+      <c r="Q109" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9" t="s">
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="U109" s="9" t="s">
+      <c r="U109" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="V109" s="9" t="s">
+      <c r="V109" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7370,53 +7376,53 @@
       <c r="L110" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M110" s="9" t="s">
+      <c r="M110" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N110" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O110" s="9" t="s">
+      <c r="N110" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O110" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P110" s="9" t="s">
+      <c r="P110" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q110" s="9" t="s">
+      <c r="Q110" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R110" s="9" t="s">
+      <c r="R110" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9" t="s">
+      <c r="S110" s="10"/>
+      <c r="T110" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="U110" s="9" t="s">
+      <c r="U110" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="V110" s="9"/>
+      <c r="V110" s="10"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
       <c r="J111" s="6" t="s">
         <v>232</v>
       </c>
@@ -7426,22 +7432,22 @@
       <c r="L111" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N111" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O111" s="5" t="s">
+      <c r="N111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O111" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P111" s="5"/>
+      <c r="P111" s="2"/>
       <c r="Q111" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
       <c r="U111" s="6" t="s">
         <v>243</v>
       </c>
@@ -7576,53 +7582,53 @@
       <c r="L114" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M114" s="9" t="s">
+      <c r="M114" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N114" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O114" s="9" t="s">
+      <c r="N114" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O114" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P114" s="9" t="s">
+      <c r="P114" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q114" s="9" t="s">
+      <c r="Q114" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9" t="s">
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="U114" s="9" t="s">
+      <c r="U114" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="V114" s="9" t="s">
+      <c r="V114" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="C115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
       <c r="J115" s="6" t="s">
         <v>232</v>
       </c>
@@ -7632,22 +7638,22 @@
       <c r="L115" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N115" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O115" s="5" t="s">
+      <c r="N115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O115" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P115" s="5"/>
+      <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
       <c r="U115" s="6" t="s">
         <v>243</v>
       </c>
@@ -7768,25 +7774,25 @@
       </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="C118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
       <c r="J118" s="6" t="s">
         <v>232</v>
       </c>
@@ -7796,22 +7802,22 @@
       <c r="L118" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N118" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O118" s="5" t="s">
+      <c r="N118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O118" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P118" s="5"/>
+      <c r="P118" s="2"/>
       <c r="Q118" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
       <c r="U118" s="6" t="s">
         <v>243</v>
       </c>
@@ -7932,52 +7938,52 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="C121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="2"/>
       <c r="F121" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5" t="s">
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K121" s="5"/>
+      <c r="K121" s="2"/>
       <c r="L121" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M121" s="5" t="s">
+      <c r="M121" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O121" s="5" t="s">
+      <c r="N121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O121" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P121" s="5"/>
+      <c r="P121" s="2"/>
       <c r="Q121" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5" t="s">
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V121" s="5"/>
+      <c r="V121" s="2"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -8095,25 +8101,25 @@
       <c r="A124" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10" t="s">
+      <c r="C124" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="K124" s="10" t="s">
+      <c r="K124" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="L124" s="11" t="s">
+      <c r="L124" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M124" s="5"/>
@@ -8131,27 +8137,27 @@
       <c r="A125" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D125" s="10" t="s">
+      <c r="C125" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10" t="s">
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K125" s="10"/>
-      <c r="L125" s="11" t="s">
+      <c r="K125" s="12"/>
+      <c r="L125" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M125" s="5"/>
@@ -8169,33 +8175,33 @@
       <c r="A126" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D126" s="10" t="s">
+      <c r="C126" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F126" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10" t="s">
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J126" s="10" t="s">
+      <c r="J126" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K126" s="10" t="s">
+      <c r="K126" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="L126" s="11" t="s">
+      <c r="L126" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M126" s="5"/>
@@ -8213,31 +8219,31 @@
       <c r="A127" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127" s="10" t="s">
+      <c r="C127" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F127" s="10" t="s">
+      <c r="F127" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G127" s="10" t="s">
+      <c r="G127" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10" t="s">
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="K127" s="10"/>
-      <c r="L127" s="11" t="s">
+      <c r="K127" s="12"/>
+      <c r="L127" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M127" s="5"/>
@@ -8255,27 +8261,27 @@
       <c r="A128" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D128" s="10" t="s">
+      <c r="C128" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10" t="s">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10" t="s">
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K128" s="10"/>
-      <c r="L128" s="11" t="s">
+      <c r="K128" s="12"/>
+      <c r="L128" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M128" s="5"/>
@@ -8293,29 +8299,29 @@
       <c r="A129" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D129" s="10" t="s">
+      <c r="C129" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10" t="s">
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="K129" s="10"/>
-      <c r="L129" s="11" t="s">
+      <c r="K129" s="12"/>
+      <c r="L129" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M129" s="5"/>
@@ -8333,33 +8339,33 @@
       <c r="A130" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D130" s="10" t="s">
+      <c r="C130" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F130" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10" t="s">
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J130" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="K130" s="10" t="s">
+      <c r="K130" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L130" s="11" t="s">
+      <c r="L130" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M130" s="5"/>
@@ -8377,33 +8383,33 @@
       <c r="A131" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D131" s="10" t="s">
+      <c r="C131" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F131" s="10" t="s">
+      <c r="F131" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10" t="s">
+      <c r="H131" s="12"/>
+      <c r="I131" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="K131" s="10"/>
-      <c r="L131" s="11" t="s">
+      <c r="K131" s="12"/>
+      <c r="L131" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M131" s="5"/>
@@ -8421,27 +8427,27 @@
       <c r="A132" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D132" s="10" t="s">
+      <c r="C132" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10" t="s">
+      <c r="E132" s="12"/>
+      <c r="F132" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10" t="s">
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K132" s="10"/>
-      <c r="L132" s="11" t="s">
+      <c r="K132" s="12"/>
+      <c r="L132" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M132" s="5"/>
@@ -8459,31 +8465,31 @@
       <c r="A133" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" s="10" t="s">
+      <c r="C133" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="10" t="s">
+      <c r="F133" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G133" s="10" t="s">
+      <c r="G133" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10" t="s">
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="K133" s="10"/>
-      <c r="L133" s="11" t="s">
+      <c r="K133" s="12"/>
+      <c r="L133" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M133" s="5"/>
@@ -8501,31 +8507,31 @@
       <c r="A134" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D134" s="10" t="s">
+      <c r="C134" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E134" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10" t="s">
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J134" s="10" t="s">
+      <c r="J134" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="K134" s="10"/>
-      <c r="L134" s="11" t="s">
+      <c r="K134" s="12"/>
+      <c r="L134" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M134" s="5"/>
@@ -8543,25 +8549,25 @@
       <c r="A135" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10" t="s">
+      <c r="C135" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="K135" s="10" t="s">
+      <c r="K135" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="L135" s="11" t="s">
+      <c r="L135" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M135" s="5"/>
@@ -8579,27 +8585,27 @@
       <c r="A136" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D136" s="10" t="s">
+      <c r="C136" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10" t="s">
+      <c r="E136" s="12"/>
+      <c r="F136" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10" t="s">
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K136" s="10"/>
-      <c r="L136" s="11" t="s">
+      <c r="K136" s="12"/>
+      <c r="L136" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M136" s="5"/>
@@ -8617,33 +8623,33 @@
       <c r="A137" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D137" s="10" t="s">
+      <c r="C137" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D137" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E137" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F137" s="10" t="s">
+      <c r="F137" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10" t="s">
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J137" s="10" t="s">
+      <c r="J137" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K137" s="10" t="s">
+      <c r="K137" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="L137" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M137" s="5"/>
@@ -8661,31 +8667,31 @@
       <c r="A138" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D138" s="10" t="s">
+      <c r="C138" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F138" s="10" t="s">
+      <c r="F138" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G138" s="10" t="s">
+      <c r="G138" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10" t="s">
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K138" s="10"/>
-      <c r="L138" s="11" t="s">
+      <c r="K138" s="12"/>
+      <c r="L138" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M138" s="5"/>
@@ -8703,27 +8709,27 @@
       <c r="A139" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D139" s="10" t="s">
+      <c r="C139" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10" t="s">
+      <c r="E139" s="12"/>
+      <c r="F139" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10" t="s">
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K139" s="10"/>
-      <c r="L139" s="11" t="s">
+      <c r="K139" s="12"/>
+      <c r="L139" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M139" s="5"/>
@@ -8741,29 +8747,29 @@
       <c r="A140" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D140" s="10" t="s">
+      <c r="C140" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E140" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10" t="s">
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="K140" s="10"/>
-      <c r="L140" s="11" t="s">
+      <c r="K140" s="12"/>
+      <c r="L140" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M140" s="5"/>
@@ -8781,33 +8787,33 @@
       <c r="A141" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D141" s="10" t="s">
+      <c r="C141" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E141" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F141" s="10" t="s">
+      <c r="F141" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10" t="s">
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J141" s="10" t="s">
+      <c r="J141" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="K141" s="10" t="s">
+      <c r="K141" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="L141" s="11" t="s">
+      <c r="L141" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M141" s="5"/>
@@ -8825,33 +8831,33 @@
       <c r="A142" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D142" s="10" t="s">
+      <c r="C142" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E142" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F142" s="10" t="s">
+      <c r="F142" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G142" s="10" t="s">
+      <c r="G142" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10" t="s">
+      <c r="H142" s="12"/>
+      <c r="I142" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J142" s="10" t="s">
+      <c r="J142" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="K142" s="10"/>
-      <c r="L142" s="11" t="s">
+      <c r="K142" s="12"/>
+      <c r="L142" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M142" s="5"/>
@@ -8869,29 +8875,29 @@
       <c r="A143" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D143" s="10" t="s">
+      <c r="C143" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10" t="s">
+      <c r="E143" s="12"/>
+      <c r="F143" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10" t="s">
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K143" s="10" t="s">
+      <c r="K143" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L143" s="11" t="s">
+      <c r="L143" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M143" s="5"/>
@@ -8909,29 +8915,29 @@
       <c r="A144" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D144" s="10" t="s">
+      <c r="C144" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F144" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10" t="s">
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K144" s="10"/>
-      <c r="L144" s="11" t="s">
+      <c r="K144" s="12"/>
+      <c r="L144" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M144" s="5"/>
@@ -8949,31 +8955,31 @@
       <c r="A145" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D145" s="10" t="s">
+      <c r="C145" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F145" s="10" t="s">
+      <c r="F145" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10" t="s">
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J145" s="10" t="s">
+      <c r="J145" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="K145" s="10"/>
-      <c r="L145" s="11" t="s">
+      <c r="K145" s="12"/>
+      <c r="L145" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M145" s="5"/>
@@ -8991,29 +8997,29 @@
       <c r="A146" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" s="10" t="s">
+      <c r="C146" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10" t="s">
+      <c r="E146" s="12"/>
+      <c r="F146" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10" t="s">
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K146" s="10" t="s">
+      <c r="K146" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L146" s="11" t="s">
+      <c r="L146" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M146" s="5"/>
@@ -9031,29 +9037,29 @@
       <c r="A147" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D147" s="10" t="s">
+      <c r="C147" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F147" s="10" t="s">
+      <c r="F147" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10" t="s">
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K147" s="10"/>
-      <c r="L147" s="11" t="s">
+      <c r="K147" s="12"/>
+      <c r="L147" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M147" s="5"/>
@@ -9071,33 +9077,33 @@
       <c r="A148" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D148" s="10" t="s">
+      <c r="C148" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F148" s="10" t="s">
+      <c r="F148" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10" t="s">
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="J148" s="10" t="s">
+      <c r="J148" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="K148" s="10" t="s">
+      <c r="K148" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="L148" s="11" t="s">
+      <c r="L148" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M148" s="5"/>
@@ -9115,29 +9121,29 @@
       <c r="A149" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D149" s="10" t="s">
+      <c r="C149" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="s">
+      <c r="E149" s="12"/>
+      <c r="F149" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10" t="s">
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K149" s="10" t="s">
+      <c r="K149" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L149" s="11" t="s">
+      <c r="L149" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M149" s="5"/>
@@ -9155,29 +9161,29 @@
       <c r="A150" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D150" s="10" t="s">
+      <c r="C150" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D150" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F150" s="10" t="s">
+      <c r="F150" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10" t="s">
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K150" s="10"/>
-      <c r="L150" s="11" t="s">
+      <c r="K150" s="12"/>
+      <c r="L150" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M150" s="5"/>
@@ -9195,33 +9201,33 @@
       <c r="A151" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D151" s="10" t="s">
+      <c r="C151" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D151" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F151" s="10" t="s">
+      <c r="F151" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10" t="s">
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="J151" s="10" t="s">
+      <c r="J151" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="K151" s="10" t="s">
+      <c r="K151" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="L151" s="11" t="s">
+      <c r="L151" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M151" s="5"/>
@@ -9239,27 +9245,27 @@
       <c r="A152" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D152" s="10" t="s">
+      <c r="C152" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D152" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10" t="s">
+      <c r="E152" s="12"/>
+      <c r="F152" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10" t="s">
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K152" s="10"/>
-      <c r="L152" s="11" t="s">
+      <c r="K152" s="12"/>
+      <c r="L152" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M152" s="5"/>
@@ -9277,31 +9283,31 @@
       <c r="A153" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D153" s="10" t="s">
+      <c r="C153" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F153" s="10" t="s">
+      <c r="F153" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G153" s="10" t="s">
+      <c r="G153" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10" t="s">
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="K153" s="10"/>
-      <c r="L153" s="11" t="s">
+      <c r="K153" s="12"/>
+      <c r="L153" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M153" s="5"/>
@@ -9319,31 +9325,31 @@
       <c r="A154" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D154" s="10" t="s">
+      <c r="C154" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F154" s="10" t="s">
+      <c r="F154" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10" t="s">
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J154" s="10" t="s">
+      <c r="J154" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="K154" s="10"/>
-      <c r="L154" s="11" t="s">
+      <c r="K154" s="12"/>
+      <c r="L154" s="13" t="s">
         <v>273</v>
       </c>
       <c r="M154" s="5"/>
@@ -9378,7 +9384,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9634,7 +9640,7 @@
         <v>268</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -9934,48 +9940,48 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5" t="s">
+      <c r="C166" s="2"/>
+      <c r="D166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K166" s="5"/>
+      <c r="K166" s="2"/>
       <c r="L166" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N166" s="5"/>
-      <c r="O166" s="5" t="s">
+      <c r="N166" s="2"/>
+      <c r="O166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P166" s="5"/>
+      <c r="P166" s="2"/>
       <c r="Q166" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -10030,48 +10036,48 @@
       <c r="V167" s="5"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5" t="s">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K168" s="5"/>
+      <c r="K168" s="2"/>
       <c r="L168" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M168" s="5" t="s">
+      <c r="M168" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5" t="s">
+      <c r="N168" s="2"/>
+      <c r="O168" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P168" s="5"/>
+      <c r="P168" s="2"/>
       <c r="Q168" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
